--- a/One_Time_Bills/One_Time_Master_Summary.xlsx
+++ b/One_Time_Bills/One_Time_Master_Summary.xlsx
@@ -559,25 +559,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="F3" t="n">
-        <v>75000</v>
+        <v>180000</v>
       </c>
       <c r="G3" t="n">
-        <v>6750</v>
+        <v>16200</v>
       </c>
       <c r="H3" t="n">
-        <v>6750</v>
+        <v>16200</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88500</v>
+        <v>212400</v>
       </c>
     </row>
     <row r="4">

--- a/One_Time_Bills/One_Time_Master_Summary.xlsx
+++ b/One_Time_Bills/One_Time_Master_Summary.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,6 @@
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -485,22 +484,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SGST</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IGST</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
         </is>
       </c>
     </row>
@@ -530,16 +524,13 @@
         <v>15000</v>
       </c>
       <c r="G2" t="n">
-        <v>1350</v>
+        <v>17700</v>
       </c>
       <c r="H2" t="n">
         <v>1350</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17700</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="3">
@@ -568,16 +559,13 @@
         <v>180000</v>
       </c>
       <c r="G3" t="n">
-        <v>16200</v>
+        <v>212400</v>
       </c>
       <c r="H3" t="n">
         <v>16200</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>212400</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="4">
@@ -612,10 +600,6 @@
       </c>
       <c r="I4" s="2">
         <f>SUM(I2:I3)</f>
-        <v/>
-      </c>
-      <c r="J4" s="2">
-        <f>SUM(J2:J3)</f>
         <v/>
       </c>
     </row>
